--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,66 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>admin1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>admin@gmail.com</t>
+        </is>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>zcx</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>zxc</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>zxc</t>
+        </is>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>sds@gmail.com</t>
+        </is>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>admin123</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>admin@example.com</t>
+          <t>admin@gmail.com</t>
         </is>
       </c>
       <c r="D2" t="b">
@@ -478,60 +478,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>admin1</t>
+          <t>user</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>admin@gmail.com</t>
+          <t>user@gmail.com</t>
         </is>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>zcx</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>zxc</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>zxc</t>
-        </is>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>sd</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sd</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>sds@gmail.com</t>
-        </is>
-      </c>
-      <c r="D5" t="b">
         <v>0</v>
       </c>
     </row>
